--- a/figure/paper_table.xlsx
+++ b/figure/paper_table.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="12708" windowHeight="8484"/>
+    <workbookView windowWidth="14580" windowHeight="8172"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
   <si>
     <t>Result</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>Paper Results</t>
+  </si>
+  <si>
+    <t>Not Covered</t>
   </si>
 </sst>
 </file>
@@ -468,7 +471,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -656,6 +659,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -686,6 +698,15 @@
       <right style="medium">
         <color auto="1"/>
       </right>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="thick">
         <color auto="1"/>
@@ -827,7 +848,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -839,34 +860,34 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -951,7 +972,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1031,11 +1052,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1043,8 +1064,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1055,7 +1076,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1064,11 +1091,23 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1423,13 +1462,13 @@
   <sheetPr/>
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" ht="15.9" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1688,21 +1727,29 @@
         <v>18</v>
       </c>
       <c r="D9" s="26"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
+      <c r="E9" s="27">
+        <v>0.0412</v>
+      </c>
+      <c r="F9" s="26">
+        <v>0.0666</v>
+      </c>
+      <c r="G9" s="26">
+        <v>0.0753</v>
+      </c>
+      <c r="H9" s="26">
+        <v>0.1922</v>
+      </c>
       <c r="I9" s="10">
-        <v>0.1929</v>
+        <v>0.1815</v>
       </c>
       <c r="J9" s="28">
-        <v>0.258</v>
-      </c>
-      <c r="K9" s="10">
-        <v>0.3363</v>
-      </c>
-      <c r="L9" s="10">
-        <v>0.6296</v>
+        <v>0.2416</v>
+      </c>
+      <c r="K9" s="27">
+        <v>0.3268</v>
+      </c>
+      <c r="L9" s="27">
+        <v>0.6003</v>
       </c>
     </row>
     <row r="10" ht="15.15" spans="1:12">
@@ -1712,16 +1759,32 @@
         <v>16</v>
       </c>
       <c r="D10" s="30"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
+      <c r="E10" s="27">
+        <v>0.0383</v>
+      </c>
+      <c r="F10" s="26">
+        <v>0.0638</v>
+      </c>
+      <c r="G10" s="26">
+        <v>0.0716</v>
+      </c>
+      <c r="H10" s="26">
+        <v>0.1906</v>
+      </c>
+      <c r="I10" s="31">
+        <v>0.1938</v>
+      </c>
+      <c r="J10" s="31">
+        <v>0.2551</v>
+      </c>
+      <c r="K10" s="31">
+        <v>0.3382</v>
+      </c>
+      <c r="L10" s="31">
+        <v>0.6151</v>
+      </c>
     </row>
-    <row r="11" ht="15.15" spans="1:12">
+    <row r="11" spans="1:12">
       <c r="A11" s="32" t="s">
         <v>19</v>
       </c>
@@ -1730,14 +1793,16 @@
         <v>13</v>
       </c>
       <c r="D11" s="34"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="10">
+      <c r="E11" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="27">
         <v>0.1835</v>
       </c>
-      <c r="J11" s="10">
+      <c r="J11" s="27">
         <v>0.2429</v>
       </c>
       <c r="K11" s="10">
@@ -1748,24 +1813,34 @@
       </c>
     </row>
     <row r="12" ht="15.15" spans="1:12">
-      <c r="A12" s="35"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="36" t="s">
+      <c r="A12" s="38"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="37"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="38"/>
-      <c r="K12" s="38"/>
-      <c r="L12" s="38"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="44">
+        <v>0.1934</v>
+      </c>
+      <c r="J12" s="44">
+        <v>0.2518</v>
+      </c>
+      <c r="K12" s="44">
+        <v>0.3359</v>
+      </c>
+      <c r="L12" s="44">
+        <v>0.5983</v>
+      </c>
     </row>
-    <row r="13" ht="15.15"/>
+    <row r="13" ht="15.15" spans="1:12">
+      <c r="I13" s="45"/>
+    </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="20">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:H1"/>
@@ -1785,6 +1860,7 @@
     <mergeCell ref="A3:B8"/>
     <mergeCell ref="A9:B10"/>
     <mergeCell ref="A11:B12"/>
+    <mergeCell ref="E11:H12"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/figure/paper_table.xlsx
+++ b/figure/paper_table.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="14580" windowHeight="8172"/>
+    <workbookView windowWidth="10668" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" r:id="rId1"/>
@@ -1462,8 +1462,8 @@
   <sheetPr/>
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1524,7 +1524,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" ht="15.9" spans="1:12">
+    <row r="3" spans="1:12">
       <c r="A3" s="7" t="s">
         <v>10</v>
       </c>
@@ -1686,7 +1686,7 @@
         <v>0.1512</v>
       </c>
     </row>
-    <row r="8" ht="15.15" spans="1:12">
+    <row r="8" spans="1:12">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="20" t="s">
